--- a/database/sia/expdata/1003.xlsx
+++ b/database/sia/expdata/1003.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>col</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>z2</t>
+  </si>
+  <si>
+    <t>pT</t>
   </si>
   <si>
     <t>S2/1-C2</t>
@@ -86,7 +89,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="14"/>
@@ -220,14 +223,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office Theme">
@@ -370,17 +373,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -408,10 +411,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -659,12 +662,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -951,7 +954,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -979,10 +982,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1233,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1247,15 +1250,16 @@
     <col min="6" max="6" width="5.67188" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.67188" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.67188" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
     <col min="15" max="15" width="8" style="1" customWidth="1"/>
     <col min="16" max="16" width="8" style="1" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="1" customWidth="1"/>
+    <col min="18" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1">
@@ -1307,10 +1311,13 @@
       <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="12" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>10.6</v>
@@ -1334,33 +1341,36 @@
         <v>0.174</v>
       </c>
       <c r="I2" s="3">
+        <v>0.372</v>
+      </c>
+      <c r="J2" s="3">
         <v>0.716</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>0.6870000000000001</v>
       </c>
-      <c r="K2" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="L2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M2" s="4">
         <v>1.11</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>0.14</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>0.05</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P2" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="12" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>10.6</v>
@@ -1384,33 +1394,36 @@
         <v>0.244</v>
       </c>
       <c r="I3" s="3">
+        <v>0.364</v>
+      </c>
+      <c r="J3" s="3">
         <v>0.715</v>
       </c>
-      <c r="J3" s="3">
+      <c r="K3" s="3">
         <v>0.6830000000000001</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="L3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4">
         <v>1.43</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>0.12</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>0.05</v>
       </c>
-      <c r="O3" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>10.6</v>
@@ -1434,33 +1447,36 @@
         <v>0.344</v>
       </c>
       <c r="I4" s="3">
+        <v>0.356</v>
+      </c>
+      <c r="J4" s="3">
         <v>0.711</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>0.676</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="L4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M4" s="4">
         <v>1.34</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>0.16</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>0.06</v>
       </c>
-      <c r="O4" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P4" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>10.6</v>
@@ -1484,33 +1500,36 @@
         <v>0.444</v>
       </c>
       <c r="I5" s="3">
+        <v>0.351</v>
+      </c>
+      <c r="J5" s="3">
         <v>0.706</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>0.671</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="L5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M5" s="4">
         <v>1.44</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>0.17</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>0.06</v>
       </c>
-      <c r="O5" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P5" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="12" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <v>10.6</v>
@@ -1534,33 +1553,36 @@
         <v>0.577</v>
       </c>
       <c r="I6" s="3">
+        <v>0.346</v>
+      </c>
+      <c r="J6" s="3">
         <v>0.697</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>0.663</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L6" s="4">
+      <c r="L6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M6" s="4">
         <v>1.76</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>0.2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>0.07000000000000001</v>
       </c>
-      <c r="O6" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P6" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="12" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>10.6</v>
@@ -1584,33 +1606,36 @@
         <v>0.772</v>
       </c>
       <c r="I7" s="3">
+        <v>0.339</v>
+      </c>
+      <c r="J7" s="3">
         <v>0.6830000000000001</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>0.655</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="L7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M7" s="4">
         <v>2.48</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>0.26</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>0.08</v>
       </c>
-      <c r="O7" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P7" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q7" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>10.6</v>
@@ -1634,33 +1659,36 @@
         <v>0.174</v>
       </c>
       <c r="I8" s="3">
+        <v>0.511</v>
+      </c>
+      <c r="J8" s="3">
         <v>0.715</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>0.6850000000000001</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="L8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M8" s="4">
         <v>1.24</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>0.12</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>0.05</v>
       </c>
-      <c r="O8" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P8" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q8" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3">
         <v>10.6</v>
@@ -1684,33 +1712,36 @@
         <v>0.244</v>
       </c>
       <c r="I9" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="J9" s="3">
         <v>0.713</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>0.6820000000000001</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="L9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M9" s="4">
         <v>1.53</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>0.11</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>0.06</v>
       </c>
-      <c r="O9" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P9" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="10" ht="12" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>10.6</v>
@@ -1734,33 +1765,36 @@
         <v>0.344</v>
       </c>
       <c r="I10" s="3">
+        <v>0.467</v>
+      </c>
+      <c r="J10" s="3">
         <v>0.71</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>0.676</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="L10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M10" s="4">
         <v>1.83</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>0.17</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>0.06</v>
       </c>
-      <c r="O10" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q10" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="11" ht="12" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
         <v>10.6</v>
@@ -1784,33 +1818,36 @@
         <v>0.444</v>
       </c>
       <c r="I11" s="3">
+        <v>0.453</v>
+      </c>
+      <c r="J11" s="3">
         <v>0.706</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>0.672</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="L11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M11" s="4">
         <v>1.76</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>0.17</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>0.06</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q11" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="12" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>10.6</v>
@@ -1834,33 +1871,36 @@
         <v>0.577</v>
       </c>
       <c r="I12" s="3">
+        <v>0.438</v>
+      </c>
+      <c r="J12" s="3">
         <v>0.698</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>0.665</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="L12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M12" s="4">
         <v>2.32</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>0.19</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>0.08</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P12" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>10.6</v>
@@ -1884,33 +1924,36 @@
         <v>0.772</v>
       </c>
       <c r="I13" s="3">
+        <v>0.412</v>
+      </c>
+      <c r="J13" s="3">
         <v>0.6850000000000001</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>0.658</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L13" s="4">
+      <c r="L13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M13" s="4">
         <v>3.07</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>0.24</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>0.08</v>
       </c>
-      <c r="O13" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P13" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="14" ht="12" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
         <v>10.6</v>
@@ -1934,33 +1977,36 @@
         <v>0.174</v>
       </c>
       <c r="I14" s="3">
+        <v>0.707</v>
+      </c>
+      <c r="J14" s="3">
         <v>0.71</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>0.6820000000000001</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="L14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M14" s="4">
         <v>1.27</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>0.16</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>0.06</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P14" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q14" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="15" ht="12" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3">
         <v>10.6</v>
@@ -1984,33 +2030,36 @@
         <v>0.244</v>
       </c>
       <c r="I15" s="3">
+        <v>0.661</v>
+      </c>
+      <c r="J15" s="3">
         <v>0.71</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>0.68</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L15" s="4">
+      <c r="L15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M15" s="4">
         <v>1.41</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>0.16</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>0.06</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P15" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q15" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="16" ht="12" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
         <v>10.6</v>
@@ -2034,33 +2083,36 @@
         <v>0.344</v>
       </c>
       <c r="I16" s="3">
+        <v>0.613</v>
+      </c>
+      <c r="J16" s="3">
         <v>0.706</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>0.674</v>
       </c>
-      <c r="K16" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L16" s="4">
+      <c r="L16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M16" s="4">
         <v>2.26</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>0.31</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>0.12</v>
       </c>
-      <c r="O16" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P16" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="17" ht="12" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>10.6</v>
@@ -2084,33 +2136,36 @@
         <v>0.444</v>
       </c>
       <c r="I17" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="J17" s="3">
         <v>0.702</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>0.671</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="L17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M17" s="4">
         <v>1.95</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>0.29</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>0.11</v>
       </c>
-      <c r="O17" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P17" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="18" ht="12" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>10.6</v>
@@ -2134,33 +2189,36 @@
         <v>0.577</v>
       </c>
       <c r="I18" s="3">
+        <v>0.548</v>
+      </c>
+      <c r="J18" s="3">
         <v>0.696</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>0.665</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L18" s="4">
+      <c r="L18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M18" s="4">
         <v>2.74</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>0.32</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>0.18</v>
       </c>
-      <c r="O18" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P18" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="12" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>10.6</v>
@@ -2184,33 +2242,36 @@
         <v>0.772</v>
       </c>
       <c r="I19" s="3">
+        <v>0.493</v>
+      </c>
+      <c r="J19" s="3">
         <v>0.6840000000000001</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>0.659</v>
       </c>
-      <c r="K19" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L19" s="4">
+      <c r="L19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M19" s="4">
         <v>4.31</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>0.35</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>0.22</v>
       </c>
-      <c r="O19" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P19" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q19" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="12" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
         <v>10.6</v>
@@ -2234,33 +2295,36 @@
         <v>0.174</v>
       </c>
       <c r="I20" s="3">
+        <v>0.901</v>
+      </c>
+      <c r="J20" s="3">
         <v>0.706</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>0.68</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L20" s="4">
+      <c r="L20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M20" s="4">
         <v>1.03</v>
       </c>
-      <c r="M20" s="4">
+      <c r="N20" s="4">
         <v>0.17</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>0.06</v>
       </c>
-      <c r="O20" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P20" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="12" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
         <v>10.6</v>
@@ -2284,33 +2348,36 @@
         <v>0.244</v>
       </c>
       <c r="I21" s="3">
+        <v>0.828</v>
+      </c>
+      <c r="J21" s="3">
         <v>0.706</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>0.678</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L21" s="4">
+      <c r="L21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M21" s="4">
         <v>1.69</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>0.17</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>0.06</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P21" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="12" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
         <v>10.6</v>
@@ -2334,33 +2401,36 @@
         <v>0.344</v>
       </c>
       <c r="I22" s="3">
+        <v>0.752</v>
+      </c>
+      <c r="J22" s="3">
         <v>0.702</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>0.673</v>
       </c>
-      <c r="K22" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="L22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M22" s="4">
         <v>2.04</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="4">
         <v>0.29</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>0.11</v>
       </c>
-      <c r="O22" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P22" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="12" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3">
         <v>10.6</v>
@@ -2387,30 +2457,33 @@
         <v>0.699</v>
       </c>
       <c r="J23" s="3">
+        <v>0.699</v>
+      </c>
+      <c r="K23" s="3">
         <v>0.669</v>
       </c>
-      <c r="K23" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="L23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M23" s="4">
         <v>1.96</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="4">
         <v>0.31</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>0.11</v>
       </c>
-      <c r="O23" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P23" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="24" ht="12" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3">
         <v>10.6</v>
@@ -2434,33 +2507,36 @@
         <v>0.578</v>
       </c>
       <c r="I24" s="3">
+        <v>0.647</v>
+      </c>
+      <c r="J24" s="3">
         <v>0.6929999999999999</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>0.664</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="L24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M24" s="4">
         <v>3.36</v>
       </c>
-      <c r="M24" s="4">
+      <c r="N24" s="4">
         <v>0.34</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>0.2</v>
       </c>
-      <c r="O24" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P24" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q24" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="12" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3">
         <v>10.6</v>
@@ -2484,33 +2560,36 @@
         <v>0.774</v>
       </c>
       <c r="I25" s="3">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="J25" s="3">
         <v>0.681</v>
       </c>
-      <c r="J25" s="3">
+      <c r="K25" s="3">
         <v>0.659</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="L25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M25" s="4">
         <v>4.84</v>
       </c>
-      <c r="M25" s="4">
+      <c r="N25" s="4">
         <v>0.51</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>0.24</v>
       </c>
-      <c r="O25" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P25" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q25" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="26" ht="12" customHeight="1">
       <c r="A26" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="3">
         <v>10.6</v>
@@ -2534,33 +2613,36 @@
         <v>0.174</v>
       </c>
       <c r="I26" s="3">
+        <v>1.155</v>
+      </c>
+      <c r="J26" s="3">
         <v>0.697</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>0.677</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L26" s="4">
+      <c r="L26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M26" s="4">
         <v>1.62</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="4">
         <v>0.2</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>0.1</v>
       </c>
-      <c r="O26" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P26" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q26" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="27" ht="12" customHeight="1">
       <c r="A27" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3">
         <v>10.6</v>
@@ -2584,33 +2666,36 @@
         <v>0.244</v>
       </c>
       <c r="I27" s="3">
+        <v>1.042</v>
+      </c>
+      <c r="J27" s="3">
         <v>0.698</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>0.675</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L27" s="4">
+      <c r="L27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M27" s="4">
         <v>2.07</v>
       </c>
-      <c r="M27" s="4">
+      <c r="N27" s="4">
         <v>0.19</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>0.1</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P27" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="28" ht="12" customHeight="1">
       <c r="A28" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3">
         <v>10.6</v>
@@ -2634,33 +2719,36 @@
         <v>0.344</v>
       </c>
       <c r="I28" s="3">
+        <v>0.921</v>
+      </c>
+      <c r="J28" s="3">
         <v>0.696</v>
       </c>
-      <c r="J28" s="3">
+      <c r="K28" s="3">
         <v>0.671</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L28" s="4">
+      <c r="L28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M28" s="4">
         <v>2.85</v>
       </c>
-      <c r="M28" s="4">
+      <c r="N28" s="4">
         <v>0.32</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>0.19</v>
       </c>
-      <c r="O28" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P28" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="29" ht="12" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3">
         <v>10.6</v>
@@ -2684,33 +2772,36 @@
         <v>0.444</v>
       </c>
       <c r="I29" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="J29" s="3">
         <v>0.6929999999999999</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>0.667</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L29" s="4">
+      <c r="L29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M29" s="4">
         <v>3.17</v>
       </c>
-      <c r="M29" s="4">
+      <c r="N29" s="4">
         <v>0.34</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>0.19</v>
       </c>
-      <c r="O29" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P29" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3">
         <v>10.6</v>
@@ -2734,33 +2825,36 @@
         <v>0.579</v>
       </c>
       <c r="I30" s="3">
+        <v>0.769</v>
+      </c>
+      <c r="J30" s="3">
         <v>0.6879999999999999</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>0.662</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L30" s="4">
+      <c r="L30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M30" s="4">
         <v>4.57</v>
       </c>
-      <c r="M30" s="4">
+      <c r="N30" s="4">
         <v>0.37</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>0.25</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P30" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
         <v>10.6</v>
@@ -2784,33 +2878,36 @@
         <v>0.775</v>
       </c>
       <c r="I31" s="3">
+        <v>0.653</v>
+      </c>
+      <c r="J31" s="3">
         <v>0.675</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>0.656</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L31" s="4">
+      <c r="L31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M31" s="4">
         <v>7.66</v>
       </c>
-      <c r="M31" s="4">
+      <c r="N31" s="4">
         <v>0.62</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>0.31</v>
       </c>
-      <c r="O31" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P31" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q31" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="32" ht="12" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="3">
         <v>10.6</v>
@@ -2834,33 +2931,36 @@
         <v>0.174</v>
       </c>
       <c r="I32" s="3">
+        <v>1.515</v>
+      </c>
+      <c r="J32" s="3">
         <v>0.6830000000000001</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>0.672</v>
       </c>
-      <c r="K32" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="L32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M32" s="4">
         <v>2.37</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="4">
         <v>0.26</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>0.11</v>
       </c>
-      <c r="O32" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P32" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q32" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="33" ht="12" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" s="3">
         <v>10.6</v>
@@ -2884,33 +2984,36 @@
         <v>0.244</v>
       </c>
       <c r="I33" s="3">
+        <v>1.314</v>
+      </c>
+      <c r="J33" s="3">
         <v>0.6850000000000001</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>0.672</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L33" s="4">
+      <c r="L33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M33" s="4">
         <v>2.99</v>
       </c>
-      <c r="M33" s="4">
+      <c r="N33" s="4">
         <v>0.24</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>0.11</v>
       </c>
-      <c r="O33" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P33" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q33" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="12" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3">
         <v>10.6</v>
@@ -2934,33 +3037,36 @@
         <v>0.344</v>
       </c>
       <c r="I34" s="3">
+        <v>1.111</v>
+      </c>
+      <c r="J34" s="3">
         <v>0.6840000000000001</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34" s="3">
         <v>0.668</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L34" s="4">
+      <c r="L34" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M34" s="4">
         <v>4</v>
       </c>
-      <c r="M34" s="4">
+      <c r="N34" s="4">
         <v>0.35</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>0.2</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P34" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="12" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3">
         <v>10.6</v>
@@ -2984,33 +3090,36 @@
         <v>0.445</v>
       </c>
       <c r="I35" s="3">
+        <v>0.978</v>
+      </c>
+      <c r="J35" s="3">
         <v>0.6820000000000001</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>0.665</v>
       </c>
-      <c r="K35" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L35" s="4">
+      <c r="L35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M35" s="4">
         <v>5.91</v>
       </c>
-      <c r="M35" s="4">
+      <c r="N35" s="4">
         <v>0.52</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>0.24</v>
       </c>
-      <c r="O35" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P35" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="12" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3">
         <v>10.6</v>
@@ -3034,33 +3143,36 @@
         <v>0.58</v>
       </c>
       <c r="I36" s="3">
+        <v>0.869</v>
+      </c>
+      <c r="J36" s="3">
         <v>0.676</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36" s="3">
         <v>0.659</v>
       </c>
-      <c r="K36" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L36" s="4">
+      <c r="L36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M36" s="4">
         <v>7.26</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="4">
         <v>0.61</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>0.3</v>
       </c>
-      <c r="O36" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P36" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q36" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="12" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" s="3">
         <v>10.6</v>
@@ -3084,35 +3196,38 @@
         <v>0.776</v>
       </c>
       <c r="I37" s="3">
+        <v>0.735</v>
+      </c>
+      <c r="J37" s="3">
         <v>0.664</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>0.651</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="L37" s="4">
+      <c r="L37" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="M37" s="4">
         <v>11.1</v>
       </c>
-      <c r="M37" s="4">
+      <c r="N37" s="4">
         <v>1.19</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>0.39</v>
       </c>
-      <c r="O37" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="P37" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/database/sia/expdata/1003.xlsx
+++ b/database/sia/expdata/1003.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO-REPOS/fitpack/database/sia/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="16740" yWindow="4160" windowWidth="26280" windowHeight="19580"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="20">
   <si>
     <t>col</t>
   </si>
@@ -76,23 +92,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -136,52 +139,98 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -383,7 +432,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -402,7 +451,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -432,7 +481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -458,7 +507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -484,7 +533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -510,7 +559,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -536,7 +585,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -562,7 +611,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -588,7 +637,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -614,7 +663,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,7 +689,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -653,9 +702,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -672,7 +727,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -691,7 +746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -717,7 +772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -743,7 +798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -769,7 +824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -795,7 +850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,7 +902,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +928,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -899,7 +954,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -938,9 +993,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -954,7 +1015,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -973,7 +1034,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1064,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1029,7 +1090,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +1116,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1081,7 +1142,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1107,7 +1168,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1133,7 +1194,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +1220,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1246,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,7 +1272,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,99 +1285,94 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="158" zoomScaleNormal="158" zoomScalePageLayoutView="158" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.67188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.67188" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.67188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.67188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.67188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.67188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.67188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="9" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.83203125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1" customWidth="1"/>
+    <col min="15" max="17" width="8" style="1" customWidth="1"/>
+    <col min="18" max="256" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="12" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3">
@@ -1329,7 +1385,7 @@
         <v>0.2</v>
       </c>
       <c r="E2" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F2" s="3">
         <v>0.15</v>
@@ -1338,38 +1394,38 @@
         <v>0.2</v>
       </c>
       <c r="H2" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="I2" s="3">
         <v>0.372</v>
       </c>
       <c r="J2" s="3">
-        <v>0.716</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="K2" s="3">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="L2" t="s" s="2">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M2" s="4">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="N2" s="4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O2" s="4">
         <v>0.05</v>
       </c>
-      <c r="P2" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="12" customHeight="1">
-      <c r="A3" t="s" s="2">
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3">
@@ -1382,7 +1438,7 @@
         <v>0.2</v>
       </c>
       <c r="E3" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F3" s="3">
         <v>0.2</v>
@@ -1391,18 +1447,18 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I3" s="3">
-        <v>0.364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="J3" s="3">
-        <v>0.715</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="K3" s="3">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="L3" t="s" s="2">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M3" s="4">
@@ -1414,15 +1470,15 @@
       <c r="O3" s="4">
         <v>0.05</v>
       </c>
-      <c r="P3" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q3" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="12" customHeight="1">
-      <c r="A4" t="s" s="2">
+      <c r="P3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3">
@@ -1435,7 +1491,7 @@
         <v>0.2</v>
       </c>
       <c r="E4" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F4" s="3">
         <v>0.3</v>
@@ -1444,18 +1500,18 @@
         <v>0.4</v>
       </c>
       <c r="H4" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I4" s="3">
-        <v>0.356</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="J4" s="3">
-        <v>0.711</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="K4" s="3">
-        <v>0.676</v>
-      </c>
-      <c r="L4" t="s" s="2">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M4" s="4">
@@ -1467,15 +1523,15 @@
       <c r="O4" s="4">
         <v>0.06</v>
       </c>
-      <c r="P4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q4" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="12" customHeight="1">
-      <c r="A5" t="s" s="2">
+      <c r="P4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3">
@@ -1488,7 +1544,7 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F5" s="3">
         <v>0.4</v>
@@ -1497,18 +1553,18 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I5" s="3">
-        <v>0.351</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="J5" s="3">
-        <v>0.706</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="K5" s="3">
-        <v>0.671</v>
-      </c>
-      <c r="L5" t="s" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M5" s="4">
@@ -1520,15 +1576,15 @@
       <c r="O5" s="4">
         <v>0.06</v>
       </c>
-      <c r="P5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q5" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="12" customHeight="1">
-      <c r="A6" t="s" s="2">
+      <c r="P5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="3">
@@ -1541,7 +1597,7 @@
         <v>0.2</v>
       </c>
       <c r="E6" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F6" s="3">
         <v>0.5</v>
@@ -1550,18 +1606,18 @@
         <v>0.7</v>
       </c>
       <c r="H6" s="3">
-        <v>0.577</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="I6" s="3">
-        <v>0.346</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="J6" s="3">
-        <v>0.697</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="K6" s="3">
-        <v>0.663</v>
-      </c>
-      <c r="L6" t="s" s="2">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="4">
@@ -1571,17 +1627,17 @@
         <v>0.2</v>
       </c>
       <c r="O6" s="4">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q6" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="12" customHeight="1">
-      <c r="A7" t="s" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3">
@@ -1594,7 +1650,7 @@
         <v>0.2</v>
       </c>
       <c r="E7" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F7" s="3">
         <v>0.7</v>
@@ -1603,18 +1659,18 @@
         <v>0.9</v>
       </c>
       <c r="H7" s="3">
-        <v>0.772</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="I7" s="3">
-        <v>0.339</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="J7" s="3">
-        <v>0.6830000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="K7" s="3">
-        <v>0.655</v>
-      </c>
-      <c r="L7" t="s" s="2">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M7" s="4">
@@ -1626,15 +1682,15 @@
       <c r="O7" s="4">
         <v>0.08</v>
       </c>
-      <c r="P7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q7" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="12" customHeight="1">
-      <c r="A8" t="s" s="2">
+      <c r="P7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3">
@@ -1647,7 +1703,7 @@
         <v>0.3</v>
       </c>
       <c r="E8" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F8" s="3">
         <v>0.15</v>
@@ -1656,18 +1712,18 @@
         <v>0.2</v>
       </c>
       <c r="H8" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="I8" s="3">
-        <v>0.511</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="J8" s="3">
-        <v>0.715</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="K8" s="3">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="L8" t="s" s="2">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M8" s="4">
@@ -1679,15 +1735,15 @@
       <c r="O8" s="4">
         <v>0.05</v>
       </c>
-      <c r="P8" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q8" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="12" customHeight="1">
-      <c r="A9" t="s" s="2">
+      <c r="P8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="3">
@@ -1700,7 +1756,7 @@
         <v>0.3</v>
       </c>
       <c r="E9" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F9" s="3">
         <v>0.2</v>
@@ -1709,18 +1765,18 @@
         <v>0.3</v>
       </c>
       <c r="H9" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I9" s="3">
         <v>0.49</v>
       </c>
       <c r="J9" s="3">
-        <v>0.713</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="K9" s="3">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="L9" t="s" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M9" s="4">
@@ -1732,15 +1788,15 @@
       <c r="O9" s="4">
         <v>0.06</v>
       </c>
-      <c r="P9" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q9" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="12" customHeight="1">
-      <c r="A10" t="s" s="2">
+      <c r="P9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="3">
@@ -1753,7 +1809,7 @@
         <v>0.3</v>
       </c>
       <c r="E10" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F10" s="3">
         <v>0.3</v>
@@ -1762,18 +1818,18 @@
         <v>0.4</v>
       </c>
       <c r="H10" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I10" s="3">
-        <v>0.467</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="J10" s="3">
         <v>0.71</v>
       </c>
       <c r="K10" s="3">
-        <v>0.676</v>
-      </c>
-      <c r="L10" t="s" s="2">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M10" s="4">
@@ -1785,15 +1841,15 @@
       <c r="O10" s="4">
         <v>0.06</v>
       </c>
-      <c r="P10" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q10" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" t="s" s="2">
+      <c r="P10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3">
@@ -1806,7 +1862,7 @@
         <v>0.3</v>
       </c>
       <c r="E11" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F11" s="3">
         <v>0.4</v>
@@ -1815,18 +1871,18 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I11" s="3">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="J11" s="3">
-        <v>0.706</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="K11" s="3">
-        <v>0.672</v>
-      </c>
-      <c r="L11" t="s" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M11" s="4">
@@ -1838,15 +1894,15 @@
       <c r="O11" s="4">
         <v>0.06</v>
       </c>
-      <c r="P11" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" t="s" s="2">
+      <c r="P11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3">
@@ -1859,7 +1915,7 @@
         <v>0.3</v>
       </c>
       <c r="E12" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F12" s="3">
         <v>0.5</v>
@@ -1868,22 +1924,22 @@
         <v>0.7</v>
       </c>
       <c r="H12" s="3">
-        <v>0.577</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="I12" s="3">
         <v>0.438</v>
       </c>
       <c r="J12" s="3">
-        <v>0.698</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="K12" s="3">
-        <v>0.665</v>
-      </c>
-      <c r="L12" t="s" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M12" s="4">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="N12" s="4">
         <v>0.19</v>
@@ -1891,15 +1947,15 @@
       <c r="O12" s="4">
         <v>0.08</v>
       </c>
-      <c r="P12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" t="s" s="2">
+      <c r="P12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="3">
@@ -1912,7 +1968,7 @@
         <v>0.3</v>
       </c>
       <c r="E13" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="F13" s="3">
         <v>0.7</v>
@@ -1921,18 +1977,18 @@
         <v>0.9</v>
       </c>
       <c r="H13" s="3">
-        <v>0.772</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="I13" s="3">
-        <v>0.412</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="J13" s="3">
-        <v>0.6850000000000001</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="K13" s="3">
-        <v>0.658</v>
-      </c>
-      <c r="L13" t="s" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M13" s="4">
@@ -1944,15 +2000,15 @@
       <c r="O13" s="4">
         <v>0.08</v>
       </c>
-      <c r="P13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" t="s" s="2">
+      <c r="P13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3">
@@ -1965,7 +2021,7 @@
         <v>0.4</v>
       </c>
       <c r="E14" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F14" s="3">
         <v>0.15</v>
@@ -1974,18 +2030,18 @@
         <v>0.2</v>
       </c>
       <c r="H14" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="I14" s="3">
-        <v>0.707</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="J14" s="3">
         <v>0.71</v>
       </c>
       <c r="K14" s="3">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="L14" t="s" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M14" s="4">
@@ -1997,15 +2053,15 @@
       <c r="O14" s="4">
         <v>0.06</v>
       </c>
-      <c r="P14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q14" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" t="s" s="2">
+      <c r="P14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3">
@@ -2018,7 +2074,7 @@
         <v>0.4</v>
       </c>
       <c r="E15" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F15" s="3">
         <v>0.2</v>
@@ -2027,10 +2083,10 @@
         <v>0.3</v>
       </c>
       <c r="H15" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I15" s="3">
-        <v>0.661</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="J15" s="3">
         <v>0.71</v>
@@ -2038,7 +2094,7 @@
       <c r="K15" s="3">
         <v>0.68</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="L15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M15" s="4">
@@ -2050,15 +2106,15 @@
       <c r="O15" s="4">
         <v>0.06</v>
       </c>
-      <c r="P15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" t="s" s="2">
+      <c r="P15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3">
@@ -2071,7 +2127,7 @@
         <v>0.4</v>
       </c>
       <c r="E16" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F16" s="3">
         <v>0.3</v>
@@ -2080,22 +2136,22 @@
         <v>0.4</v>
       </c>
       <c r="H16" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I16" s="3">
-        <v>0.613</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="J16" s="3">
-        <v>0.706</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="K16" s="3">
-        <v>0.674</v>
-      </c>
-      <c r="L16" t="s" s="2">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M16" s="4">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="N16" s="4">
         <v>0.31</v>
@@ -2103,15 +2159,15 @@
       <c r="O16" s="4">
         <v>0.12</v>
       </c>
-      <c r="P16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q16" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" t="s" s="2">
+      <c r="P16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3">
@@ -2124,7 +2180,7 @@
         <v>0.4</v>
       </c>
       <c r="E17" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F17" s="3">
         <v>0.4</v>
@@ -2133,38 +2189,38 @@
         <v>0.5</v>
       </c>
       <c r="H17" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I17" s="3">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J17" s="3">
-        <v>0.702</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="K17" s="3">
-        <v>0.671</v>
-      </c>
-      <c r="L17" t="s" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M17" s="4">
         <v>1.95</v>
       </c>
       <c r="N17" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O17" s="4">
         <v>0.11</v>
       </c>
-      <c r="P17" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" t="s" s="2">
+      <c r="P17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3">
@@ -2177,7 +2233,7 @@
         <v>0.4</v>
       </c>
       <c r="E18" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F18" s="3">
         <v>0.5</v>
@@ -2186,18 +2242,18 @@
         <v>0.7</v>
       </c>
       <c r="H18" s="3">
-        <v>0.577</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="I18" s="3">
-        <v>0.548</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="J18" s="3">
-        <v>0.696</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="K18" s="3">
-        <v>0.665</v>
-      </c>
-      <c r="L18" t="s" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M18" s="4">
@@ -2209,15 +2265,15 @@
       <c r="O18" s="4">
         <v>0.18</v>
       </c>
-      <c r="P18" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q18" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" t="s" s="2">
+      <c r="P18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3">
@@ -2230,7 +2286,7 @@
         <v>0.4</v>
       </c>
       <c r="E19" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="F19" s="3">
         <v>0.7</v>
@@ -2239,22 +2295,22 @@
         <v>0.9</v>
       </c>
       <c r="H19" s="3">
-        <v>0.772</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="I19" s="3">
-        <v>0.493</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="J19" s="3">
-        <v>0.6840000000000001</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="K19" s="3">
-        <v>0.659</v>
-      </c>
-      <c r="L19" t="s" s="2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M19" s="4">
-        <v>4.31</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="N19" s="4">
         <v>0.35</v>
@@ -2262,15 +2318,15 @@
       <c r="O19" s="4">
         <v>0.22</v>
       </c>
-      <c r="P19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q19" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" t="s" s="2">
+      <c r="P19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="3">
@@ -2283,7 +2339,7 @@
         <v>0.5</v>
       </c>
       <c r="E20" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F20" s="3">
         <v>0.15</v>
@@ -2292,18 +2348,18 @@
         <v>0.2</v>
       </c>
       <c r="H20" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="I20" s="3">
-        <v>0.901</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="J20" s="3">
-        <v>0.706</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="K20" s="3">
         <v>0.68</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="L20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M20" s="4">
@@ -2315,15 +2371,15 @@
       <c r="O20" s="4">
         <v>0.06</v>
       </c>
-      <c r="P20" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" t="s" s="2">
+      <c r="P20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="3">
@@ -2336,7 +2392,7 @@
         <v>0.5</v>
       </c>
       <c r="E21" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F21" s="3">
         <v>0.2</v>
@@ -2345,18 +2401,18 @@
         <v>0.3</v>
       </c>
       <c r="H21" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I21" s="3">
-        <v>0.828</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="J21" s="3">
-        <v>0.706</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="K21" s="3">
-        <v>0.678</v>
-      </c>
-      <c r="L21" t="s" s="2">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M21" s="4">
@@ -2368,15 +2424,15 @@
       <c r="O21" s="4">
         <v>0.06</v>
       </c>
-      <c r="P21" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" ht="12" customHeight="1">
-      <c r="A22" t="s" s="2">
+      <c r="P21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="3">
@@ -2389,7 +2445,7 @@
         <v>0.5</v>
       </c>
       <c r="E22" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F22" s="3">
         <v>0.3</v>
@@ -2398,38 +2454,38 @@
         <v>0.4</v>
       </c>
       <c r="H22" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I22" s="3">
         <v>0.752</v>
       </c>
       <c r="J22" s="3">
-        <v>0.702</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="K22" s="3">
-        <v>0.673</v>
-      </c>
-      <c r="L22" t="s" s="2">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M22" s="4">
         <v>2.04</v>
       </c>
       <c r="N22" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O22" s="4">
         <v>0.11</v>
       </c>
-      <c r="P22" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" ht="12" customHeight="1">
-      <c r="A23" t="s" s="2">
+      <c r="P22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="3">
@@ -2442,7 +2498,7 @@
         <v>0.5</v>
       </c>
       <c r="E23" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F23" s="3">
         <v>0.4</v>
@@ -2451,18 +2507,18 @@
         <v>0.5</v>
       </c>
       <c r="H23" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I23" s="3">
-        <v>0.699</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="J23" s="3">
-        <v>0.699</v>
+        <v>0.69899999999999995</v>
       </c>
       <c r="K23" s="3">
-        <v>0.669</v>
-      </c>
-      <c r="L23" t="s" s="2">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M23" s="4">
@@ -2474,15 +2530,15 @@
       <c r="O23" s="4">
         <v>0.11</v>
       </c>
-      <c r="P23" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" ht="12" customHeight="1">
-      <c r="A24" t="s" s="2">
+      <c r="P23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="3">
@@ -2495,7 +2551,7 @@
         <v>0.5</v>
       </c>
       <c r="E24" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F24" s="3">
         <v>0.5</v>
@@ -2504,18 +2560,18 @@
         <v>0.7</v>
       </c>
       <c r="H24" s="3">
-        <v>0.578</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="I24" s="3">
-        <v>0.647</v>
+        <v>0.64700000000000002</v>
       </c>
       <c r="J24" s="3">
-        <v>0.6929999999999999</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="K24" s="3">
-        <v>0.664</v>
-      </c>
-      <c r="L24" t="s" s="2">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M24" s="4">
@@ -2527,15 +2583,15 @@
       <c r="O24" s="4">
         <v>0.2</v>
       </c>
-      <c r="P24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q24" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" ht="12" customHeight="1">
-      <c r="A25" t="s" s="2">
+      <c r="P24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="3">
@@ -2548,7 +2604,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="3">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F25" s="3">
         <v>0.7</v>
@@ -2557,18 +2613,18 @@
         <v>0.9</v>
       </c>
       <c r="H25" s="3">
-        <v>0.774</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="I25" s="3">
-        <v>0.5639999999999999</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="J25" s="3">
-        <v>0.681</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="K25" s="3">
-        <v>0.659</v>
-      </c>
-      <c r="L25" t="s" s="2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M25" s="4">
@@ -2580,15 +2636,15 @@
       <c r="O25" s="4">
         <v>0.24</v>
       </c>
-      <c r="P25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q25" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" ht="12" customHeight="1">
-      <c r="A26" t="s" s="2">
+      <c r="P25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="3">
@@ -2601,7 +2657,7 @@
         <v>0.7</v>
       </c>
       <c r="E26" s="3">
-        <v>0.577</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="F26" s="3">
         <v>0.15</v>
@@ -2610,18 +2666,18 @@
         <v>0.2</v>
       </c>
       <c r="H26" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="I26" s="3">
         <v>1.155</v>
       </c>
       <c r="J26" s="3">
-        <v>0.697</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="K26" s="3">
-        <v>0.677</v>
-      </c>
-      <c r="L26" t="s" s="2">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M26" s="4">
@@ -2633,15 +2689,15 @@
       <c r="O26" s="4">
         <v>0.1</v>
       </c>
-      <c r="P26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q26" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" ht="12" customHeight="1">
-      <c r="A27" t="s" s="2">
+      <c r="P26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="3">
@@ -2654,7 +2710,7 @@
         <v>0.7</v>
       </c>
       <c r="E27" s="3">
-        <v>0.577</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="F27" s="3">
         <v>0.2</v>
@@ -2663,22 +2719,22 @@
         <v>0.3</v>
       </c>
       <c r="H27" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I27" s="3">
         <v>1.042</v>
       </c>
       <c r="J27" s="3">
-        <v>0.698</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="K27" s="3">
-        <v>0.675</v>
-      </c>
-      <c r="L27" t="s" s="2">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M27" s="4">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="N27" s="4">
         <v>0.19</v>
@@ -2686,15 +2742,15 @@
       <c r="O27" s="4">
         <v>0.1</v>
       </c>
-      <c r="P27" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" ht="12" customHeight="1">
-      <c r="A28" t="s" s="2">
+      <c r="P27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="3">
@@ -2707,7 +2763,7 @@
         <v>0.7</v>
       </c>
       <c r="E28" s="3">
-        <v>0.577</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="F28" s="3">
         <v>0.3</v>
@@ -2716,18 +2772,18 @@
         <v>0.4</v>
       </c>
       <c r="H28" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I28" s="3">
-        <v>0.921</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="J28" s="3">
-        <v>0.696</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="K28" s="3">
-        <v>0.671</v>
-      </c>
-      <c r="L28" t="s" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M28" s="4">
@@ -2739,15 +2795,15 @@
       <c r="O28" s="4">
         <v>0.19</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q28" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" ht="12" customHeight="1">
-      <c r="A29" t="s" s="2">
+      <c r="P28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="3">
@@ -2760,7 +2816,7 @@
         <v>0.7</v>
       </c>
       <c r="E29" s="3">
-        <v>0.578</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="F29" s="3">
         <v>0.4</v>
@@ -2769,18 +2825,18 @@
         <v>0.5</v>
       </c>
       <c r="H29" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I29" s="3">
         <v>0.84</v>
       </c>
       <c r="J29" s="3">
-        <v>0.6929999999999999</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="K29" s="3">
-        <v>0.667</v>
-      </c>
-      <c r="L29" t="s" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M29" s="4">
@@ -2792,15 +2848,15 @@
       <c r="O29" s="4">
         <v>0.19</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" ht="12" customHeight="1">
-      <c r="A30" t="s" s="2">
+      <c r="P29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="3">
@@ -2813,7 +2869,7 @@
         <v>0.7</v>
       </c>
       <c r="E30" s="3">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="F30" s="3">
         <v>0.5</v>
@@ -2822,18 +2878,18 @@
         <v>0.7</v>
       </c>
       <c r="H30" s="3">
-        <v>0.579</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="I30" s="3">
-        <v>0.769</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="J30" s="3">
-        <v>0.6879999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="K30" s="3">
-        <v>0.662</v>
-      </c>
-      <c r="L30" t="s" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M30" s="4">
@@ -2845,15 +2901,15 @@
       <c r="O30" s="4">
         <v>0.25</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" ht="12" customHeight="1">
-      <c r="A31" t="s" s="2">
+      <c r="P30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="3">
@@ -2866,7 +2922,7 @@
         <v>0.7</v>
       </c>
       <c r="E31" s="3">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F31" s="3">
         <v>0.7</v>
@@ -2875,18 +2931,18 @@
         <v>0.9</v>
       </c>
       <c r="H31" s="3">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="I31" s="3">
-        <v>0.653</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="J31" s="3">
-        <v>0.675</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="K31" s="3">
-        <v>0.656</v>
-      </c>
-      <c r="L31" t="s" s="2">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M31" s="4">
@@ -2898,15 +2954,15 @@
       <c r="O31" s="4">
         <v>0.31</v>
       </c>
-      <c r="P31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q31" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" ht="12" customHeight="1">
-      <c r="A32" t="s" s="2">
+      <c r="P31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="3">
@@ -2919,7 +2975,7 @@
         <v>0.9</v>
       </c>
       <c r="E32" s="3">
-        <v>0.772</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="F32" s="3">
         <v>0.15</v>
@@ -2928,18 +2984,18 @@
         <v>0.2</v>
       </c>
       <c r="H32" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="I32" s="3">
-        <v>1.515</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="J32" s="3">
-        <v>0.6830000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="K32" s="3">
-        <v>0.672</v>
-      </c>
-      <c r="L32" t="s" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M32" s="4">
@@ -2951,15 +3007,15 @@
       <c r="O32" s="4">
         <v>0.11</v>
       </c>
-      <c r="P32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q32" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" ht="12" customHeight="1">
-      <c r="A33" t="s" s="2">
+      <c r="P32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="3">
@@ -2972,7 +3028,7 @@
         <v>0.9</v>
       </c>
       <c r="E33" s="3">
-        <v>0.772</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="F33" s="3">
         <v>0.2</v>
@@ -2981,18 +3037,18 @@
         <v>0.3</v>
       </c>
       <c r="H33" s="3">
-        <v>0.244</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="I33" s="3">
-        <v>1.314</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="J33" s="3">
-        <v>0.6850000000000001</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="K33" s="3">
-        <v>0.672</v>
-      </c>
-      <c r="L33" t="s" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M33" s="4">
@@ -3004,15 +3060,15 @@
       <c r="O33" s="4">
         <v>0.11</v>
       </c>
-      <c r="P33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q33" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" ht="12" customHeight="1">
-      <c r="A34" t="s" s="2">
+      <c r="P33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="3">
@@ -3025,7 +3081,7 @@
         <v>0.9</v>
       </c>
       <c r="E34" s="3">
-        <v>0.773</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="F34" s="3">
         <v>0.3</v>
@@ -3034,18 +3090,18 @@
         <v>0.4</v>
       </c>
       <c r="H34" s="3">
-        <v>0.344</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I34" s="3">
         <v>1.111</v>
       </c>
       <c r="J34" s="3">
-        <v>0.6840000000000001</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="K34" s="3">
-        <v>0.668</v>
-      </c>
-      <c r="L34" t="s" s="2">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M34" s="4">
@@ -3057,15 +3113,15 @@
       <c r="O34" s="4">
         <v>0.2</v>
       </c>
-      <c r="P34" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q34" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" ht="12" customHeight="1">
-      <c r="A35" t="s" s="2">
+      <c r="P34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B35" s="3">
@@ -3078,7 +3134,7 @@
         <v>0.9</v>
       </c>
       <c r="E35" s="3">
-        <v>0.774</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="F35" s="3">
         <v>0.4</v>
@@ -3087,18 +3143,18 @@
         <v>0.5</v>
       </c>
       <c r="H35" s="3">
-        <v>0.445</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="I35" s="3">
-        <v>0.978</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="J35" s="3">
-        <v>0.6820000000000001</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="K35" s="3">
-        <v>0.665</v>
-      </c>
-      <c r="L35" t="s" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M35" s="4">
@@ -3110,15 +3166,15 @@
       <c r="O35" s="4">
         <v>0.24</v>
       </c>
-      <c r="P35" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q35" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" ht="12" customHeight="1">
-      <c r="A36" t="s" s="2">
+      <c r="P35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="3">
@@ -3131,7 +3187,7 @@
         <v>0.9</v>
       </c>
       <c r="E36" s="3">
-        <v>0.775</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F36" s="3">
         <v>0.5</v>
@@ -3140,18 +3196,18 @@
         <v>0.7</v>
       </c>
       <c r="H36" s="3">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I36" s="3">
-        <v>0.869</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="J36" s="3">
-        <v>0.676</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="K36" s="3">
-        <v>0.659</v>
-      </c>
-      <c r="L36" t="s" s="2">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M36" s="4">
@@ -3163,15 +3219,15 @@
       <c r="O36" s="4">
         <v>0.3</v>
       </c>
-      <c r="P36" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q36" t="s" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" ht="12" customHeight="1">
-      <c r="A37" t="s" s="2">
+      <c r="P36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="3">
@@ -3184,7 +3240,7 @@
         <v>0.9</v>
       </c>
       <c r="E37" s="3">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="F37" s="3">
         <v>0.7</v>
@@ -3193,18 +3249,18 @@
         <v>0.9</v>
       </c>
       <c r="H37" s="3">
-        <v>0.776</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="I37" s="3">
-        <v>0.735</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="J37" s="3">
-        <v>0.664</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="K37" s="3">
-        <v>0.651</v>
-      </c>
-      <c r="L37" t="s" s="2">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="M37" s="4">
@@ -3216,16 +3272,16 @@
       <c r="O37" s="4">
         <v>0.39</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q37" t="s" s="2">
+      <c r="P37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511806" footer="0.511806"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.51180599999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
